--- a/Grafik/Planering/Grafikplanering_PT02.xlsx
+++ b/Grafik/Planering/Grafikplanering_PT02.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
   <si>
     <t>Vecka:</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Allmänt</t>
+  </si>
+  <si>
+    <t>100% Färdigt</t>
   </si>
 </sst>
 </file>
@@ -406,11 +409,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="20% - Dekorfärg1" xfId="4" builtinId="30"/>
-    <cellStyle name="40% - Dekorfärg1" xfId="5" builtinId="31"/>
-    <cellStyle name="Bra" xfId="1" builtinId="26"/>
-    <cellStyle name="Färg1" xfId="3" builtinId="29"/>
-    <cellStyle name="Färg2" xfId="6" builtinId="33"/>
+    <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="3" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="6" builtinId="33"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -425,7 +428,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -714,7 +717,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,9 +1534,9 @@
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="9" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2057,8 +2060,10 @@
       <c r="C37" s="3"/>
       <c r="D37" s="6"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>

--- a/Grafik/Planering/Grafikplanering_PT02.xlsx
+++ b/Grafik/Planering/Grafikplanering_PT02.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="78">
   <si>
     <t>Vecka:</t>
   </si>
@@ -717,7 +717,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,11 +1856,11 @@
       <c r="C32" s="10"/>
       <c r="D32" s="6"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="L32" s="8" t="s">
@@ -1899,8 +1899,10 @@
       <c r="D33" s="6"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="L33" s="10"/>
@@ -2018,11 +2020,11 @@
       <c r="C36" s="10"/>
       <c r="D36" s="6"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="L36" s="8" t="s">
@@ -2060,11 +2062,11 @@
       <c r="C37" s="3"/>
       <c r="D37" s="6"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="L37" s="10"/>

--- a/Grafik/Planering/Grafikplanering_PT02.xlsx
+++ b/Grafik/Planering/Grafikplanering_PT02.xlsx
@@ -717,7 +717,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,9 +1574,9 @@
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="9" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>

--- a/Grafik/Planering/Grafikplanering_PT02.xlsx
+++ b/Grafik/Planering/Grafikplanering_PT02.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
   <si>
     <t>Vecka:</t>
   </si>
@@ -717,7 +717,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="F29" sqref="F29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,10 +1734,8 @@
       <c r="C29" s="3"/>
       <c r="D29" s="6"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>

--- a/Grafik/Planering/Grafikplanering_PT02.xlsx
+++ b/Grafik/Planering/Grafikplanering_PT02.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="78">
   <si>
     <t>Vecka:</t>
   </si>
@@ -1734,8 +1734,10 @@
       <c r="C29" s="3"/>
       <c r="D29" s="6"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>

--- a/Grafik/Planering/Grafikplanering_PT02.xlsx
+++ b/Grafik/Planering/Grafikplanering_PT02.xlsx
@@ -717,7 +717,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:G29"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,11 +1039,11 @@
       <c r="C9" s="3"/>
       <c r="D9" s="6"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="W9" s="3"/>
@@ -1065,9 +1065,9 @@
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="9" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>

--- a/Grafik/Planering/Grafikplanering_PT02.xlsx
+++ b/Grafik/Planering/Grafikplanering_PT02.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
   <si>
     <t>Vecka:</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>100% Färdigt</t>
+  </si>
+  <si>
+    <t>50% Färdigt</t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,9 +919,9 @@
       <c r="C5" s="3"/>
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="9" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -946,9 +949,9 @@
       <c r="C6" s="3"/>
       <c r="D6" s="6"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="9" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -976,11 +979,11 @@
       <c r="C7" s="3"/>
       <c r="D7" s="6"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" t="s">
@@ -1009,11 +1012,11 @@
       <c r="C8" s="3"/>
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="W8" s="11"/>
@@ -1216,11 +1219,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="L14" s="8" t="s">
@@ -1272,9 +1275,9 @@
       <c r="N15" s="3"/>
       <c r="O15" s="6"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="2"/>
       <c r="R15" s="9" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -1314,9 +1317,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="6"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="2"/>
       <c r="R16" s="9" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -1388,9 +1391,9 @@
       <c r="N19" s="10"/>
       <c r="O19" s="6"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="7"/>
+      <c r="Q19" s="2"/>
       <c r="R19" s="9" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -2076,11 +2079,11 @@
       <c r="N37" s="3"/>
       <c r="O37" s="6"/>
       <c r="P37" s="1"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="W37" s="3" t="s">

--- a/Grafik/Planering/Grafikplanering_PT02.xlsx
+++ b/Grafik/Planering/Grafikplanering_PT02.xlsx
@@ -720,7 +720,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,11 +1591,11 @@
       <c r="N25" s="3"/>
       <c r="O25" s="6"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="W25" s="3"/>

--- a/Grafik/Planering/Grafikplanering_PT02.xlsx
+++ b/Grafik/Planering/Grafikplanering_PT02.xlsx
@@ -720,7 +720,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="R25" sqref="R25:S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,10 +745,10 @@
       <c r="E1" s="3">
         <v>8</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>9</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="4">
         <v>10</v>
       </c>
       <c r="H1" s="3">
@@ -766,10 +766,10 @@
       <c r="P1" s="3">
         <v>8</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="3">
         <v>9</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="4">
         <v>10</v>
       </c>
       <c r="S1" s="3">
@@ -787,10 +787,10 @@
       <c r="AA1" s="3">
         <v>8</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="3">
         <v>9</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="4">
         <v>10</v>
       </c>
       <c r="AD1" s="3">
@@ -811,7 +811,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -825,7 +825,7 @@
       <c r="P2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="R2" s="12" t="s">
@@ -847,7 +847,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="7"/>
+      <c r="AB2" s="2"/>
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
@@ -1139,10 +1139,10 @@
       <c r="P12" s="3">
         <v>8</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>9</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="4">
         <v>10</v>
       </c>
       <c r="S12" s="3">
@@ -1191,7 +1191,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="6"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="2"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -1406,10 +1406,10 @@
       <c r="E20" s="3">
         <v>8</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>9</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="4">
         <v>10</v>
       </c>
       <c r="H20" s="3">
@@ -1440,7 +1440,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -1513,10 +1513,10 @@
       <c r="AA23" s="3">
         <v>8</v>
       </c>
-      <c r="AB23" s="4">
+      <c r="AB23" s="3">
         <v>9</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AC23" s="4">
         <v>10</v>
       </c>
       <c r="AD23" s="3">
@@ -1563,7 +1563,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="7"/>
+      <c r="AB24" s="2"/>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>

--- a/Grafik/Planering/Grafikplanering_PT02.xlsx
+++ b/Grafik/Planering/Grafikplanering_PT02.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="80">
   <si>
     <t>Vecka:</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>50% Färdigt</t>
+  </si>
+  <si>
+    <t>1 Dagar</t>
   </si>
 </sst>
 </file>
@@ -720,7 +723,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25:S25"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +832,7 @@
         <v>62</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>2</v>
@@ -1043,9 +1046,9 @@
       <c r="D9" s="6"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="9" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1111,9 +1114,9 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
-      <c r="AC11" s="7"/>
+      <c r="AC11" s="2"/>
       <c r="AD11" s="9" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
@@ -1127,9 +1130,9 @@
       <c r="D12" s="6"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="9" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1288,10 +1291,8 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
     </row>
@@ -1592,9 +1593,9 @@
       <c r="O25" s="6"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="7"/>
+      <c r="R25" s="2"/>
       <c r="S25" s="9" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -2080,9 +2081,9 @@
       <c r="O37" s="6"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="7"/>
+      <c r="R37" s="2"/>
       <c r="S37" s="9" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>

--- a/Grafik/Planering/Grafikplanering_PT02.xlsx
+++ b/Grafik/Planering/Grafikplanering_PT02.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="79">
   <si>
     <t>Vecka:</t>
   </si>
@@ -249,9 +249,6 @@
   </si>
   <si>
     <t>100% Färdigt</t>
-  </si>
-  <si>
-    <t>50% Färdigt</t>
   </si>
   <si>
     <t>1 Dagar</t>
@@ -723,7 +720,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +829,7 @@
         <v>62</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>2</v>
@@ -1100,9 +1097,9 @@
       <c r="D11" s="6"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="9" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1223,9 +1220,9 @@
       <c r="D14" s="6"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1265,11 +1262,11 @@
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="L15" s="10"/>
       <c r="M15" s="11" t="s">
@@ -1305,11 +1302,11 @@
       <c r="D16" s="6"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="L16" s="10"/>
       <c r="M16" s="11" t="s">
@@ -1629,9 +1626,9 @@
       <c r="O26" s="6"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="7"/>
+      <c r="R26" s="2"/>
       <c r="S26" s="9" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -1793,11 +1790,11 @@
       <c r="O30" s="6"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="R30" s="7"/>
+      <c r="S30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="W30" s="3" t="s">
         <v>67</v>

--- a/Grafik/Planering/Grafikplanering_PT02.xlsx
+++ b/Grafik/Planering/Grafikplanering_PT02.xlsx
@@ -134,9 +134,6 @@
     <t>1.2 Högupplöst gånganimation</t>
   </si>
   <si>
-    <t>1.3 Bankdirektör i 2 vyer</t>
-  </si>
-  <si>
     <t>1.11 Uppdatera husen</t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>1 Dagar</t>
+  </si>
+  <si>
+    <t>1.3 Bankdirektör</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +805,7 @@
     </row>
     <row r="2" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -817,7 +817,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="L2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -826,10 +826,10 @@
         <v>2</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>2</v>
@@ -921,7 +921,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
       <c r="G5" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -951,7 +951,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -991,15 +991,15 @@
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="11" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="7"/>
+      <c r="AC7" s="2"/>
       <c r="AD7" s="9" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
@@ -1045,7 +1045,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="2"/>
       <c r="H9" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1063,14 +1063,14 @@
     <row r="10" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
       <c r="G10" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1099,13 +1099,13 @@
       <c r="F11" s="1"/>
       <c r="G11" s="2"/>
       <c r="H11" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="W11" s="10"/>
       <c r="X11" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y11" s="3"/>
       <c r="Z11" s="6"/>
@@ -1113,7 +1113,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
@@ -1129,7 +1129,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
       <c r="H12" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="W12" s="10"/>
       <c r="X12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6"/>
@@ -1198,7 +1198,7 @@
       <c r="U13" s="7"/>
       <c r="W13" s="10"/>
       <c r="X13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y13" s="3"/>
       <c r="Z13" s="6"/>
@@ -1222,7 +1222,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1240,7 +1240,7 @@
       <c r="U14" s="1"/>
       <c r="W14" s="10"/>
       <c r="X14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6"/>
@@ -1256,7 +1256,7 @@
     <row r="15" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
@@ -1277,7 +1277,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -1296,7 +1296,7 @@
     <row r="16" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
@@ -1317,13 +1317,13 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="W16" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X16" s="10"/>
       <c r="Y16" s="3"/>
@@ -1391,7 +1391,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="21" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="23" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1530,14 +1530,14 @@
     <row r="24" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
       <c r="B24" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
       <c r="G24" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1555,7 +1555,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="W24" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
@@ -1570,14 +1570,14 @@
     <row r="25" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
       <c r="G25" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1592,7 +1592,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="2"/>
       <c r="S25" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -1628,12 +1628,12 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="2"/>
       <c r="S26" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="W26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="27" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="3"/>
@@ -1671,7 +1671,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="W27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
@@ -1688,7 +1688,7 @@
     <row r="28" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="6"/>
@@ -1713,7 +1713,7 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="W28" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
@@ -1730,14 +1730,14 @@
     <row r="29" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="6"/>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
       <c r="G29" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="U29" s="1"/>
       <c r="W29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
@@ -1797,7 +1797,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="W30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="31" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="3"/>
@@ -1835,7 +1835,7 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="W31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
@@ -1852,15 +1852,15 @@
     <row r="32" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="6"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="9" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1877,7 +1877,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="W32" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
@@ -1894,7 +1894,7 @@
     <row r="33" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="6"/>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="U33" s="1"/>
       <c r="W33" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="U34" s="1"/>
       <c r="W34" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="35" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="3"/>
@@ -1999,7 +1999,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="W35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
@@ -2016,15 +2016,15 @@
     <row r="36" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="6"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="9" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2041,7 +2041,7 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="W36" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
@@ -2058,7 +2058,7 @@
     <row r="37" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="6"/>
@@ -2080,12 +2080,12 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="2"/>
       <c r="S37" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="W37" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>

--- a/Grafik/Planering/Grafikplanering_PT02.xlsx
+++ b/Grafik/Planering/Grafikplanering_PT02.xlsx
@@ -720,7 +720,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +825,7 @@
       <c r="P2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="13" t="s">
         <v>61</v>
       </c>
       <c r="R2" s="12" t="s">
@@ -980,9 +980,9 @@
       <c r="D7" s="6"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="9" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1013,9 +1013,9 @@
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="9" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1027,9 +1027,9 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="7"/>
+      <c r="AC8" s="2"/>
       <c r="AD8" s="9" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
@@ -1178,9 +1178,9 @@
       <c r="D13" s="6"/>
       <c r="E13" s="1"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="9" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1302,9 +1302,9 @@
       <c r="D16" s="6"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="9" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1750,11 +1750,11 @@
       <c r="O29" s="6"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="R29" s="7"/>
+      <c r="S29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="W29" s="3" t="s">
         <v>65</v>
@@ -1914,11 +1914,11 @@
       <c r="O33" s="6"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="R33" s="7"/>
+      <c r="S33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="W33" s="3" t="s">
         <v>69</v>
@@ -1955,9 +1955,9 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="7"/>
+      <c r="S34" s="2"/>
       <c r="T34" s="9" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="U34" s="1"/>
       <c r="W34" s="3" t="s">

--- a/Grafik/Planering/Grafikplanering_PT02.xlsx
+++ b/Grafik/Planering/Grafikplanering_PT02.xlsx
@@ -720,7 +720,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,11 +1750,11 @@
       <c r="O29" s="6"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="U29" s="1"/>
       <c r="W29" s="3" t="s">
         <v>65</v>
@@ -1790,11 +1790,11 @@
       <c r="O30" s="6"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="U30" s="1"/>
       <c r="W30" s="3" t="s">
         <v>66</v>
@@ -1900,9 +1900,9 @@
       <c r="D33" s="6"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="7"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="9" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2064,9 +2064,9 @@
       <c r="D37" s="6"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="7"/>
+      <c r="G37" s="2"/>
       <c r="H37" s="9" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>

--- a/Grafik/Planering/Grafikplanering_PT02.xlsx
+++ b/Grafik/Planering/Grafikplanering_PT02.xlsx
@@ -720,7 +720,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Grafik/Planering/Grafikplanering_PT02.xlsx
+++ b/Grafik/Planering/Grafikplanering_PT02.xlsx
@@ -720,7 +720,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,9 +1791,9 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="7"/>
+      <c r="S30" s="2"/>
       <c r="T30" s="9" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="U30" s="1"/>
       <c r="W30" s="3" t="s">

--- a/Grafik/Planering/Grafikplanering_PT02.xlsx
+++ b/Grafik/Planering/Grafikplanering_PT02.xlsx
@@ -720,7 +720,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,9 +1262,9 @@
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="9" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1914,11 +1914,11 @@
       <c r="O33" s="6"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="9" t="s">
+      <c r="R33" s="1"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="W33" s="3" t="s">
         <v>69</v>

--- a/Grafik/Planering/Grafikplanering_PT02.xlsx
+++ b/Grafik/Planering/Grafikplanering_PT02.xlsx
@@ -322,7 +322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,11 +356,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -386,21 +381,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -411,11 +404,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
     <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
-    <cellStyle name="Accent2" xfId="6" builtinId="33"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,7 +712,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +740,7 @@
       <c r="F1" s="3">
         <v>9</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>10</v>
       </c>
       <c r="H1" s="3">
@@ -769,7 +761,7 @@
       <c r="Q1" s="3">
         <v>9</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="3">
         <v>10</v>
       </c>
       <c r="S1" s="3">
@@ -790,7 +782,7 @@
       <c r="AB1" s="3">
         <v>9</v>
       </c>
-      <c r="AC1" s="4">
+      <c r="AC1" s="3">
         <v>10</v>
       </c>
       <c r="AD1" s="3">
@@ -804,80 +796,80 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="L2" s="5" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="L2" s="4" t="s">
         <v>60</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="13" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="6"/>
+      <c r="Z2" s="5"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
     </row>
     <row r="3" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="6"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="5"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="9"/>
+      <c r="R3" s="8"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="6"/>
+      <c r="Z3" s="5"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
@@ -886,24 +878,24 @@
       <c r="AF3" s="1"/>
     </row>
     <row r="4" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="6"/>
+      <c r="Z4" s="5"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -912,76 +904,76 @@
       <c r="AF4" s="1"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>76</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="11" t="s">
+      <c r="W5" s="9"/>
+      <c r="X5" s="10" t="s">
         <v>36</v>
       </c>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="6"/>
+      <c r="Z5" s="5"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="9" t="s">
-        <v>3</v>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
     </row>
     <row r="6" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>76</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="11" t="s">
+      <c r="W6" s="9"/>
+      <c r="X6" s="10" t="s">
         <v>38</v>
       </c>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="6"/>
+      <c r="Z6" s="5"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="9" t="s">
-        <v>3</v>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
     <row r="7" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I7" s="1"/>
@@ -989,70 +981,70 @@
       <c r="K7" t="s">
         <v>1</v>
       </c>
-      <c r="W7" s="10"/>
-      <c r="X7" s="11" t="s">
+      <c r="W7" s="9"/>
+      <c r="X7" s="10" t="s">
         <v>78</v>
       </c>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="6"/>
+      <c r="Z7" s="5"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="9" t="s">
+      <c r="AD7" s="8" t="s">
         <v>76</v>
       </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="10" t="s">
+      <c r="W8" s="10"/>
+      <c r="X8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="6"/>
+      <c r="Z8" s="5"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="9" t="s">
+      <c r="AD8" s="8" t="s">
         <v>76</v>
       </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="10"/>
+      <c r="X9" s="9"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="6"/>
+      <c r="Z9" s="5"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
@@ -1061,26 +1053,26 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>76</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="W10" s="8" t="s">
+      <c r="W10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="X10" s="10"/>
+      <c r="X10" s="9"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="6"/>
+      <c r="Z10" s="5"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
@@ -1089,46 +1081,46 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="11" t="s">
+      <c r="W11" s="9"/>
+      <c r="X11" s="10" t="s">
         <v>41</v>
       </c>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="6"/>
+      <c r="Z11" s="5"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="9" t="s">
+      <c r="AD11" s="8" t="s">
         <v>76</v>
       </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I12" s="1"/>
@@ -1142,7 +1134,7 @@
       <c r="Q12" s="3">
         <v>9</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="3">
         <v>10</v>
       </c>
       <c r="S12" s="3">
@@ -1154,138 +1146,138 @@
       <c r="U12" s="3">
         <v>13</v>
       </c>
-      <c r="W12" s="10"/>
+      <c r="W12" s="9"/>
       <c r="X12" s="3" t="s">
         <v>42</v>
       </c>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="6"/>
+      <c r="Z12" s="5"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="9" t="s">
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="6"/>
+      <c r="O13" s="5"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="W13" s="10"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="W13" s="9"/>
       <c r="X13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="6"/>
+      <c r="Z13" s="5"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="9" t="s">
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="10"/>
+      <c r="M14" s="9"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="6"/>
+      <c r="O14" s="5"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="W14" s="10"/>
+      <c r="W14" s="9"/>
       <c r="X14" s="3" t="s">
         <v>45</v>
       </c>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="6"/>
+      <c r="Z14" s="5"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="9" t="s">
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11" t="s">
+      <c r="L15" s="9"/>
+      <c r="M15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="6"/>
+      <c r="O15" s="5"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="9" t="s">
+      <c r="R15" s="8" t="s">
         <v>76</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="W15" s="11"/>
+      <c r="W15" s="10"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="6"/>
+      <c r="Z15" s="5"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
@@ -1294,40 +1286,40 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11" t="s">
+      <c r="L16" s="9"/>
+      <c r="M16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="N16" s="3"/>
-      <c r="O16" s="6"/>
+      <c r="O16" s="5"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="9" t="s">
+      <c r="R16" s="8" t="s">
         <v>76</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="W16" s="8" t="s">
+      <c r="W16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="X16" s="10"/>
+      <c r="X16" s="9"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="6"/>
+      <c r="Z16" s="5"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
@@ -1337,43 +1329,43 @@
     </row>
     <row r="17" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="L17" s="11"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="6"/>
+      <c r="O17" s="5"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="6"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="5"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="9"/>
+      <c r="AC17" s="8"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M18" s="10"/>
+      <c r="M18" s="9"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="6"/>
+      <c r="O18" s="5"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1382,15 +1374,15 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L19" s="10"/>
-      <c r="M19" s="11" t="s">
+      <c r="L19" s="9"/>
+      <c r="M19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="6"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="5"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="8" t="s">
         <v>76</v>
       </c>
       <c r="S19" s="1"/>
@@ -1407,7 +1399,7 @@
       <c r="F20" s="3">
         <v>9</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>10</v>
       </c>
       <c r="H20" s="3">
@@ -1419,10 +1411,10 @@
       <c r="J20" s="3">
         <v>13</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="9"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="6"/>
+      <c r="O20" s="5"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1431,24 +1423,24 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="L21" s="8" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="L21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="10"/>
+      <c r="M21" s="9"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="6"/>
+      <c r="O21" s="5"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1460,45 +1452,45 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="11" t="s">
+      <c r="L22" s="9"/>
+      <c r="M22" s="10" t="s">
         <v>18</v>
       </c>
       <c r="N22" s="3"/>
-      <c r="O22" s="6"/>
+      <c r="O22" s="5"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="9" t="s">
-        <v>3</v>
+      <c r="S22" s="2"/>
+      <c r="T22" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="9"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="6"/>
+      <c r="O23" s="5"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -1514,7 +1506,7 @@
       <c r="AB23" s="3">
         <v>9</v>
       </c>
-      <c r="AC23" s="4">
+      <c r="AC23" s="3">
         <v>10</v>
       </c>
       <c r="AD23" s="3">
@@ -1528,70 +1520,70 @@
       </c>
     </row>
     <row r="24" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>76</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M24" s="10"/>
+      <c r="M24" s="9"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="6"/>
+      <c r="O24" s="5"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-      <c r="W24" s="5" t="s">
+      <c r="W24" s="4" t="s">
         <v>59</v>
       </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
-      <c r="Z24" s="6"/>
+      <c r="Z24" s="5"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>76</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="11" t="s">
+      <c r="L25" s="9"/>
+      <c r="M25" s="10" t="s">
         <v>20</v>
       </c>
       <c r="N25" s="3"/>
-      <c r="O25" s="6"/>
+      <c r="O25" s="5"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="9" t="s">
+      <c r="S25" s="8" t="s">
         <v>76</v>
       </c>
       <c r="T25" s="1"/>
@@ -1599,7 +1591,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="6"/>
+      <c r="Z25" s="5"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
@@ -1609,25 +1601,25 @@
     </row>
     <row r="26" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="10"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="11" t="s">
+      <c r="L26" s="9"/>
+      <c r="M26" s="10" t="s">
         <v>37</v>
       </c>
       <c r="N26" s="3"/>
-      <c r="O26" s="6"/>
+      <c r="O26" s="5"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="9" t="s">
+      <c r="S26" s="8" t="s">
         <v>76</v>
       </c>
       <c r="T26" s="1"/>
@@ -1637,33 +1629,33 @@
       </c>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
-      <c r="Z26" s="6"/>
+      <c r="Z26" s="5"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="9" t="s">
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="9"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="6"/>
+      <c r="O27" s="5"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -1675,37 +1667,37 @@
       </c>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
-      <c r="Z27" s="6"/>
+      <c r="Z27" s="5"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="9" t="s">
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="9" t="s">
-        <v>3</v>
+      <c r="H28" s="2"/>
+      <c r="I28" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M28" s="10"/>
+      <c r="M28" s="9"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="6"/>
+      <c r="O28" s="5"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -1717,42 +1709,42 @@
       </c>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
-      <c r="Z28" s="6"/>
+      <c r="Z28" s="5"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="9" t="s">
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>76</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="11" t="s">
+      <c r="L29" s="9"/>
+      <c r="M29" s="10" t="s">
         <v>23</v>
       </c>
       <c r="N29" s="3"/>
-      <c r="O29" s="6"/>
+      <c r="O29" s="5"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="9" t="s">
+      <c r="S29" s="6"/>
+      <c r="T29" s="8" t="s">
         <v>3</v>
       </c>
       <c r="U29" s="1"/>
@@ -1761,38 +1753,38 @@
       </c>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
-      <c r="Z29" s="6"/>
+      <c r="Z29" s="5"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="9" t="s">
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="10" t="s">
+      <c r="L30" s="10"/>
+      <c r="M30" s="9" t="s">
         <v>24</v>
       </c>
       <c r="N30" s="3"/>
-      <c r="O30" s="6"/>
+      <c r="O30" s="5"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="2"/>
-      <c r="T30" s="9" t="s">
+      <c r="T30" s="8" t="s">
         <v>76</v>
       </c>
       <c r="U30" s="1"/>
@@ -1801,33 +1793,33 @@
       </c>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
-      <c r="Z30" s="6"/>
+      <c r="Z30" s="5"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
-      <c r="AC30" s="9"/>
+      <c r="AC30" s="8"/>
       <c r="AD30" s="1"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="9" t="s">
-        <v>3</v>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="9"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="6"/>
+      <c r="O31" s="5"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -1839,37 +1831,37 @@
       </c>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="6"/>
+      <c r="Z31" s="5"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
-      <c r="AC31" s="9"/>
+      <c r="AC31" s="8"/>
       <c r="AD31" s="1"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="9" t="s">
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M32" s="10"/>
+      <c r="M32" s="9"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="6"/>
+      <c r="O32" s="5"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -1881,42 +1873,42 @@
       </c>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
-      <c r="Z32" s="6"/>
+      <c r="Z32" s="5"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="9"/>
+      <c r="AC32" s="8"/>
       <c r="AD32" s="1"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="9" t="s">
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="11" t="s">
+      <c r="L33" s="9"/>
+      <c r="M33" s="10" t="s">
         <v>26</v>
       </c>
       <c r="N33" s="3"/>
-      <c r="O33" s="6"/>
+      <c r="O33" s="5"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="9" t="s">
+      <c r="S33" s="6"/>
+      <c r="T33" s="8" t="s">
         <v>3</v>
       </c>
       <c r="U33" s="1"/>
@@ -1925,38 +1917,38 @@
       </c>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
-      <c r="Z33" s="6"/>
+      <c r="Z33" s="5"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="9" t="s">
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="10" t="s">
+      <c r="L34" s="10"/>
+      <c r="M34" s="9" t="s">
         <v>27</v>
       </c>
       <c r="N34" s="3"/>
-      <c r="O34" s="6"/>
+      <c r="O34" s="5"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="2"/>
-      <c r="T34" s="9" t="s">
+      <c r="T34" s="8" t="s">
         <v>76</v>
       </c>
       <c r="U34" s="1"/>
@@ -1965,33 +1957,33 @@
       </c>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
-      <c r="Z34" s="6"/>
+      <c r="Z34" s="5"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="9" t="s">
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="10"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="9"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="6"/>
+      <c r="O35" s="5"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -2003,37 +1995,37 @@
       </c>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
-      <c r="Z35" s="6"/>
+      <c r="Z35" s="5"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="9" t="s">
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="6"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="L36" s="8" t="s">
+      <c r="L36" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M36" s="10"/>
+      <c r="M36" s="9"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="6"/>
+      <c r="O36" s="5"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -2045,41 +2037,41 @@
       </c>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
-      <c r="Z36" s="6"/>
+      <c r="Z36" s="5"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
-      <c r="AE36" s="7"/>
-      <c r="AF36" s="9" t="s">
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="6"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="11" t="s">
+      <c r="L37" s="9"/>
+      <c r="M37" s="10" t="s">
         <v>29</v>
       </c>
       <c r="N37" s="3"/>
-      <c r="O37" s="6"/>
+      <c r="O37" s="5"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="9" t="s">
+      <c r="S37" s="8" t="s">
         <v>76</v>
       </c>
       <c r="T37" s="1"/>
@@ -2089,31 +2081,31 @@
       </c>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
-      <c r="Z37" s="6"/>
+      <c r="Z37" s="5"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
-      <c r="AE37" s="7"/>
-      <c r="AF37" s="9" t="s">
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="6"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="9"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="6"/>
+      <c r="O38" s="5"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -2123,7 +2115,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="6"/>
+      <c r="Z38" s="5"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
